--- a/STLC Sheet - TODOIST - v.1.0.xlsx
+++ b/STLC Sheet - TODOIST - v.1.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Pass/Fail</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">[Header¨] - TScen01 </t>
-  </si>
-  <si>
-    <t>kjkj</t>
   </si>
 </sst>
 </file>
@@ -886,101 +883,119 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1003,22 +1018,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,150 +1153,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,36 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,223 +1472,246 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" thickBot="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="54"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="54"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="35"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="35"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A16:B20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A10:B15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -1708,29 +1728,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A10:B15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A16:B20"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1741,7 +1738,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1751,37 +1748,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="16" t="s">
@@ -1790,349 +1787,361 @@
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
@@ -2149,25 +2158,11 @@
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2196,61 +2191,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="26" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="107"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
@@ -2317,789 +2312,927 @@
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="73"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="74"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="74"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="75"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="7"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="73"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="74"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="74"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="74"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="116"/>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="74"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="6"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="75"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="117"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="73"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="6"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="74"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="116"/>
       <c r="I17" s="6"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="74"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="116"/>
       <c r="I18" s="6"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="75"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="117"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="76"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="77"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="6"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="77"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="87"/>
       <c r="I22" s="6"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="78"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="76"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="6"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="77"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="6"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="77"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="6"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="78"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="7"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="76"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="86"/>
       <c r="I28" s="6"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="77"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="6"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="77"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="6"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="78"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="7"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="76"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="6"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="77"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="6"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="77"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="6"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="78"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="88"/>
       <c r="I35" s="7"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
     </row>
     <row r="36" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="111"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="83"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="112"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="113"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="85"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="76"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="86"/>
       <c r="I39" s="6"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="77"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="87"/>
       <c r="I40" s="6"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="77"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="6"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="78"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="7"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
     </row>
     <row r="43" spans="1:15" ht="35.1" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="111"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="83"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="112"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="84"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="96"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="113"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="85"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
     </row>
     <row r="46" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="111"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="83"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="91"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A47" s="95"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="112"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="84"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A48" s="96"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="113"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="85"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
     </row>
     <row r="49" spans="1:15" ht="12.75">
-      <c r="A49" s="94"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="115"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="89"/>
       <c r="I49" s="6"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
     </row>
     <row r="50" spans="1:15" ht="12.75">
-      <c r="A50" s="95"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="116"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="90"/>
       <c r="I50" s="6"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
     </row>
     <row r="51" spans="1:15" ht="12.75">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="117"/>
+      <c r="A51" s="110"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="91"/>
       <c r="I51" s="7"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
     <mergeCell ref="O49:O51"/>
     <mergeCell ref="L49:L51"/>
     <mergeCell ref="M49:M51"/>
@@ -3124,144 +3257,6 @@
     <mergeCell ref="H43:H45"/>
     <mergeCell ref="H46:H48"/>
     <mergeCell ref="H49:H51"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="O36:O38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="L5">
@@ -3291,289 +3286,292 @@
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="7" spans="1:6" ht="21" thickBot="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="14"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="14"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="14"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="14"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="14"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="14"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="14"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
@@ -3586,18 +3584,15 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3648,40 +3643,40 @@
       <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:14" s="13" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="24" t="s">
@@ -3810,70 +3805,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:12" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="124" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="27" t="s">
@@ -3914,104 +3909,91 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
@@ -4028,6 +4010,19 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
